--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.1/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.1/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="228">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,229 +52,136 @@
     <t>shit</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>[UNK]</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>false</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>destroying</t>
   </si>
   <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>horrible</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
     <t>late</t>
   </si>
   <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>aside</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>stupidity</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>manipulating</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>annoyed</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>least</t>
+    <t>slight</t>
+  </si>
+  <si>
+    <t>literally</t>
   </si>
   <si>
     <t>curious</t>
@@ -286,37 +193,25 @@
     <t>mean</t>
   </si>
   <si>
-    <t>less</t>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>suicide</t>
+  </si>
+  <si>
+    <t>scared</t>
   </si>
   <si>
     <t>chilling</t>
   </si>
   <si>
-    <t>lonely</t>
-  </si>
-  <si>
     <t>finally</t>
   </si>
   <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
   <si>
     <t>missing</t>
@@ -337,10 +232,13 @@
     <t>important</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
-    <t>best</t>
+    <t>better</t>
   </si>
   <si>
     <t>wow</t>
@@ -349,43 +247,49 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>better</t>
+    <t>’</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>’</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>netflix</t>
+    <t>right</t>
   </si>
   <si>
     <t>true</t>
@@ -394,592 +298,403 @@
     <t>recommend</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>right</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>u</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>strongly</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>photos</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>point</t>
   </si>
   <si>
     <t>ironic</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>yeah</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>holy</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>aware</t>
+  </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>goes</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>business</t>
   </si>
   <si>
     <t>super</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>absolutely</t>
-  </si>
-  <si>
-    <t>goodbye</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>wild</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>tech</t>
+    <t>h</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>tool</t>
+    <t>wonder</t>
   </si>
   <si>
     <t>waiting</t>
   </si>
   <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>del</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>read</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>network</t>
   </si>
   <si>
     <t>internet</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>widely</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>rig</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>currently</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>knew</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>quite</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>paying</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>soc</t>
   </si>
   <si>
     <t>recommended</t>
   </si>
   <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>effectively</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>incredibly</t>
-  </si>
-  <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t>bubble</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>goes</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>practice</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>weekend</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>•</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>needed</t>
-  </si>
-  <si>
-    <t>specially</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>manipulation</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>exponential</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>trend</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>loving</t>
-  </si>
-  <si>
-    <t>psyche</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>soc</t>
-  </si>
-  <si>
-    <t>immediately</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>faster</t>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>ways</t>
   </si>
   <si>
     <t>positive</t>
@@ -1340,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q224"/>
+  <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,10 +1063,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1409,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.13406292749658</v>
+        <v>0.1445427728613569</v>
       </c>
       <c r="C3">
         <v>98</v>
@@ -1430,16 +1145,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>0.2282608695652174</v>
+        <v>0.2509541984732824</v>
       </c>
       <c r="L3">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M3">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1451,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1459,13 +1174,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.09986320109439124</v>
+        <v>0.1165191740412979</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1477,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K4">
-        <v>0.04257246376811594</v>
+        <v>0.04770992366412214</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1501,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1509,13 +1224,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.08618331053351573</v>
+        <v>0.09144542772861357</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1527,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="K5">
-        <v>0.03985507246376811</v>
+        <v>0.04198473282442748</v>
       </c>
       <c r="L5">
         <v>44</v>
@@ -1559,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03967168262653899</v>
+        <v>0.04277286135693215</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -1580,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.03804347826086957</v>
+        <v>0.03816793893129771</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1601,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1609,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03830369357045144</v>
+        <v>0.04129793510324484</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -1627,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>0.03351449275362319</v>
+        <v>0.03148854961832061</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1651,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1659,49 +1374,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03556771545827633</v>
+        <v>0.03982300884955752</v>
       </c>
       <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8">
+        <v>0.02480916030534351</v>
+      </c>
+      <c r="L8">
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8">
-        <v>0.02445652173913044</v>
-      </c>
-      <c r="L8">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>27</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1709</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1709,13 +1424,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02872777017783858</v>
+        <v>0.02949852507374631</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1727,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.02445652173913044</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1751,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1759,13 +1474,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02188782489740082</v>
+        <v>0.028023598820059</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1777,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.01811594202898551</v>
+        <v>0.01908396946564886</v>
       </c>
       <c r="L10">
         <v>20</v>
@@ -1801,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1809,7 +1524,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01915184678522572</v>
+        <v>0.02064896755162242</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -1827,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.01630434782608696</v>
+        <v>0.01812977099236641</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1851,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1859,31 +1574,31 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01915184678522572</v>
+        <v>0.02064896755162242</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.01630434782608696</v>
+        <v>0.01717557251908397</v>
       </c>
       <c r="L12">
         <v>18</v>
@@ -1901,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1909,13 +1624,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01915184678522572</v>
+        <v>0.0191740412979351</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1927,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>0.01449275362318841</v>
+        <v>0.01622137404580153</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1951,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>764</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1959,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01778385772913817</v>
+        <v>0.0191740412979351</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1977,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.01268115942028986</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2001,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>767</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2009,7 +1724,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01778385772913817</v>
+        <v>0.0191740412979351</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2030,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.01268115942028986</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2051,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>650</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2059,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01778385772913817</v>
+        <v>0.0191740412979351</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -2077,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K16">
-        <v>0.01177536231884058</v>
+        <v>0.01431297709923664</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2101,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2109,7 +1824,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01778385772913817</v>
+        <v>0.0191740412979351</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -2127,31 +1842,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.0108695652173913</v>
+        <v>0.01431297709923664</v>
       </c>
       <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>12</v>
-      </c>
-      <c r="M17">
-        <v>12</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2159,7 +1874,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01641586867305062</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -2177,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>0.0108695652173913</v>
+        <v>0.0133587786259542</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2201,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2209,7 +1924,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01641586867305062</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -2227,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>0.0108695652173913</v>
+        <v>0.01240458015267176</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2251,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>604</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2259,13 +1974,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01641586867305062</v>
+        <v>0.01622418879056047</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2277,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="K20">
-        <v>0.009963768115942028</v>
+        <v>0.01240458015267176</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2301,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2309,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01504787961696306</v>
+        <v>0.01622418879056047</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -2330,16 +2045,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K21">
-        <v>0.009057971014492754</v>
+        <v>0.01240458015267176</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2351,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2359,7 +2074,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01504787961696306</v>
+        <v>0.01622418879056047</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -2377,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="K22">
-        <v>0.009057971014492754</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2401,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2409,7 +2124,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01504787961696306</v>
+        <v>0.01622418879056047</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -2427,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="K23">
-        <v>0.009057971014492754</v>
+        <v>0.009541984732824428</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -2451,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2459,7 +2174,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01367989056087551</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -2477,13 +2192,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="K24">
-        <v>0.009057971014492754</v>
+        <v>0.009541984732824428</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -2501,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>530</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2509,13 +2224,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01367989056087551</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2527,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="K25">
-        <v>0.009057971014492754</v>
+        <v>0.008587786259541985</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2551,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2559,13 +2274,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01367989056087551</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2577,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K26">
-        <v>0.008152173913043478</v>
+        <v>0.008587786259541985</v>
       </c>
       <c r="L26">
         <v>9</v>
@@ -2601,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2609,7 +2324,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01231190150478796</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -2627,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="K27">
-        <v>0.007246376811594203</v>
+        <v>0.008587786259541985</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2651,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2659,38 +2374,38 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01231190150478796</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28">
+        <v>0.008587786259541985</v>
+      </c>
+      <c r="L28">
         <v>9</v>
       </c>
-      <c r="D28">
+      <c r="M28">
         <v>9</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28">
-        <v>0.007246376811594203</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <v>8</v>
-      </c>
       <c r="N28">
         <v>1</v>
       </c>
@@ -2701,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2709,38 +2424,38 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01231190150478796</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29">
+        <v>0.008587786259541985</v>
+      </c>
+      <c r="L29">
         <v>9</v>
       </c>
-      <c r="D29">
+      <c r="M29">
         <v>9</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>19</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29">
-        <v>0.007246376811594203</v>
-      </c>
-      <c r="L29">
-        <v>8</v>
-      </c>
-      <c r="M29">
-        <v>8</v>
-      </c>
       <c r="N29">
         <v>1</v>
       </c>
@@ -2751,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2759,13 +2474,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01231190150478796</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2777,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="K30">
-        <v>0.007246376811594203</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="L30">
         <v>8</v>
@@ -2801,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2809,13 +2524,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01231190150478796</v>
+        <v>0.01179941002949852</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2827,19 +2542,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K31">
-        <v>0.006340579710144928</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2851,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2859,13 +2574,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01094391244870041</v>
+        <v>0.01032448377581121</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2877,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="K32">
-        <v>0.006340579710144928</v>
+        <v>0.006679389312977099</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -2901,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2909,7 +2624,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.009575923392612859</v>
+        <v>0.01032448377581121</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -2930,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="K33">
-        <v>0.006340579710144928</v>
+        <v>0.006679389312977099</v>
       </c>
       <c r="L33">
         <v>7</v>
@@ -2951,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>130</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2959,13 +2674,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.009575923392612859</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2977,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="K34">
-        <v>0.006340579710144928</v>
+        <v>0.006679389312977099</v>
       </c>
       <c r="L34">
         <v>7</v>
@@ -3001,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3009,7 +2724,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008207934336525308</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -3027,19 +2742,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="K35">
-        <v>0.006340579710144928</v>
+        <v>0.005725190839694656</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3051,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>334</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3059,7 +2774,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008207934336525308</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -3077,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="K36">
-        <v>0.006340579710144928</v>
+        <v>0.005725190839694656</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3101,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3109,49 +2824,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.008207934336525308</v>
+        <v>0.007374631268436578</v>
       </c>
       <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37">
+        <v>0.005725190839694656</v>
+      </c>
+      <c r="L37">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>6</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37">
-        <v>0.006340579710144928</v>
-      </c>
-      <c r="L37">
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3159,7 +2874,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006839945280437756</v>
+        <v>0.007374631268436578</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -3177,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="K38">
-        <v>0.005434782608695652</v>
+        <v>0.005725190839694656</v>
       </c>
       <c r="L38">
         <v>6</v>
@@ -3201,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3209,7 +2924,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005471956224350205</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -3227,19 +2942,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="K39">
-        <v>0.005434782608695652</v>
+        <v>0.004770992366412214</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -3251,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3259,7 +2974,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005471956224350205</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3280,16 +2995,16 @@
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="K40">
-        <v>0.005434782608695652</v>
+        <v>0.004770992366412214</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -3301,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3309,7 +3024,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005471956224350205</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3327,13 +3042,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="K41">
-        <v>0.004528985507246377</v>
+        <v>0.004770992366412214</v>
       </c>
       <c r="L41">
         <v>5</v>
@@ -3351,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3359,7 +3074,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005471956224350205</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -3377,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="K42">
-        <v>0.004528985507246377</v>
+        <v>0.004770992366412214</v>
       </c>
       <c r="L42">
         <v>5</v>
@@ -3401,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>278</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3409,7 +3124,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005471956224350205</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3427,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="K43">
-        <v>0.004528985507246377</v>
+        <v>0.004770992366412214</v>
       </c>
       <c r="L43">
         <v>5</v>
@@ -3451,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3459,13 +3174,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004103967168262654</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3477,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="K44">
-        <v>0.004528985507246377</v>
+        <v>0.004770992366412214</v>
       </c>
       <c r="L44">
         <v>5</v>
@@ -3501,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3509,13 +3224,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004103967168262654</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3527,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="K45">
-        <v>0.004528985507246377</v>
+        <v>0.004770992366412214</v>
       </c>
       <c r="L45">
         <v>5</v>
@@ -3551,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3559,13 +3274,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004103967168262654</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3577,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K46">
-        <v>0.004528985507246377</v>
+        <v>0.004770992366412214</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -3601,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3609,13 +3324,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004103967168262654</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3630,16 +3345,16 @@
         <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="K47">
-        <v>0.004528985507246377</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3651,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3659,13 +3374,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004103967168262654</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3677,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="K48">
-        <v>0.004528985507246377</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3701,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3709,13 +3424,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004103967168262654</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3727,19 +3442,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="K49">
-        <v>0.004528985507246377</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3751,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3759,13 +3474,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004103967168262654</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3777,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="K50">
-        <v>0.003623188405797101</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L50">
         <v>4</v>
@@ -3801,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3809,13 +3524,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002735978112175103</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3827,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="K51">
-        <v>0.003623188405797101</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L51">
         <v>4</v>
@@ -3851,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3859,13 +3574,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.002735978112175103</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3877,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="K52">
-        <v>0.003623188405797101</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L52">
         <v>4</v>
@@ -3901,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3909,13 +3624,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.002735978112175103</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3927,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="K53">
-        <v>0.003623188405797101</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L53">
         <v>4</v>
@@ -3951,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3959,13 +3674,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002735978112175103</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3977,13 +3692,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="K54">
-        <v>0.003623188405797101</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L54">
         <v>4</v>
@@ -4001,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4009,13 +3724,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002735978112175103</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4027,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="K55">
-        <v>0.003623188405797101</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L55">
         <v>4</v>
@@ -4051,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4059,13 +3774,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002735978112175103</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4077,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K56">
-        <v>0.003623188405797101</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="L56">
         <v>4</v>
@@ -4101,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4109,13 +3824,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002735978112175103</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4127,13 +3842,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="K57">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L57">
         <v>3</v>
@@ -4151,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4159,7 +3874,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.001367989056087551</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4177,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="K58">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L58">
         <v>3</v>
@@ -4201,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4209,7 +3924,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.001367989056087551</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4227,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="K59">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L59">
         <v>3</v>
@@ -4251,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4259,7 +3974,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.001367989056087551</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4277,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="K60">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L60">
         <v>3</v>
@@ -4301,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4309,7 +4024,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.001367989056087551</v>
+        <v>0.001474926253687316</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4327,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="K61">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -4351,39 +4066,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="K62">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L62">
         <v>3</v>
@@ -4401,39 +4092,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
       <c r="J63" s="1" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="K63">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L63">
         <v>3</v>
@@ -4451,39 +4118,15 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="K64">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L64">
         <v>3</v>
@@ -4501,39 +4144,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="K65">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L65">
         <v>3</v>
@@ -4551,39 +4170,15 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="K66">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L66">
         <v>3</v>
@@ -4601,39 +4196,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="K67">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L67">
         <v>3</v>
@@ -4651,39 +4222,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="K68">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L68">
         <v>3</v>
@@ -4701,39 +4248,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="K69">
-        <v>0.002717391304347826</v>
+        <v>0.002862595419847328</v>
       </c>
       <c r="L69">
         <v>3</v>
@@ -4751,45 +4274,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="K70">
-        <v>0.002717391304347826</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4801,45 +4300,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="K71">
-        <v>0.002717391304347826</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4851,45 +4326,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="K72">
-        <v>0.002717391304347826</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4901,39 +4352,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>4</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="K73">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -4954,36 +4381,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
+    <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="K74">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L74">
         <v>2</v>
@@ -5001,39 +4404,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="K75">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -5051,889 +4430,457 @@
         <v>0</v>
       </c>
       <c r="Q75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K76">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K77">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K78">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>8</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K76">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K79">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K80">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K81">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K82">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K83">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K84">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K85">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K86">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K87">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K88">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K89">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K90">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K77">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>2</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K78">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L78">
-        <v>2</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>0.5</v>
-      </c>
-      <c r="F79">
-        <v>0.5</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>113</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K79">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L79">
-        <v>2</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>34</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K80">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L80">
-        <v>2</v>
-      </c>
-      <c r="M80">
-        <v>2</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>18</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K81">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L81">
-        <v>2</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>8</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K82">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L82">
-        <v>2</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>21</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K83">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L83">
-        <v>2</v>
-      </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K91">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K92">
+        <v>0.001908396946564885</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>21</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K84">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L84">
-        <v>2</v>
-      </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>18</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K85">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L85">
-        <v>2</v>
-      </c>
-      <c r="M85">
-        <v>2</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>8</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K86">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L86">
-        <v>2</v>
-      </c>
-      <c r="M86">
-        <v>2</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>4</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K87">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L87">
-        <v>2</v>
-      </c>
-      <c r="M87">
-        <v>2</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>13</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K88">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L88">
-        <v>2</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K89">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L89">
-        <v>2</v>
-      </c>
-      <c r="M89">
-        <v>2</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K90">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L90">
-        <v>2</v>
-      </c>
-      <c r="M90">
-        <v>2</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>5</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K91">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L91">
-        <v>2</v>
-      </c>
-      <c r="M91">
-        <v>2</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>2</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K92">
-        <v>0.001811594202898551</v>
-      </c>
-      <c r="L92">
-        <v>2</v>
-      </c>
-      <c r="M92">
-        <v>2</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>23</v>
-      </c>
+    <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="K93">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L93">
         <v>2</v>
@@ -5951,39 +4898,15 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="K94">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L94">
         <v>2</v>
@@ -6001,39 +4924,15 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="K95">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L95">
         <v>2</v>
@@ -6051,39 +4950,15 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>0.001367989056087551</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>5</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="K96">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L96">
         <v>2</v>
@@ -6101,15 +4976,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="K97">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -6127,15 +5002,15 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="K98">
-        <v>0.001811594202898551</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -6153,21 +5028,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="K99">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -6179,21 +5054,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="K100">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -6205,21 +5080,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="K101">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -6231,21 +5106,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="K102">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -6257,21 +5132,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="K103">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -6283,21 +5158,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="K104">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -6309,21 +5184,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="K105">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -6335,21 +5210,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="K106">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -6361,21 +5236,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="K107">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -6387,21 +5262,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="K108">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -6413,21 +5288,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="K109">
-        <v>0.001811594202898551</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -6439,15 +5314,15 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="K110">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -6465,15 +5340,15 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="K111">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -6491,15 +5366,15 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="K112">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -6517,15 +5392,15 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="K113">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -6543,15 +5418,15 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="K114">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -6569,15 +5444,15 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="K115">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -6595,15 +5470,15 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="K116">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -6621,15 +5496,15 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="K117">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -6647,15 +5522,15 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="K118">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -6673,15 +5548,15 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="K119">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -6699,15 +5574,15 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="K120">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -6725,15 +5600,15 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="K121">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -6751,15 +5626,15 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="K122">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L122">
         <v>1</v>
@@ -6782,10 +5657,10 @@
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="K123">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L123">
         <v>1</v>
@@ -6803,15 +5678,15 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="K124">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L124">
         <v>1</v>
@@ -6829,15 +5704,15 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="K125">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -6855,41 +5730,41 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="K126">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N126">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="K127">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L127">
         <v>1</v>
@@ -6907,15 +5782,15 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="K128">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -6933,15 +5808,15 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="K129">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -6959,15 +5834,15 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="K130">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -6985,15 +5860,15 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="K131">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -7011,15 +5886,15 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="K132">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -7037,15 +5912,15 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="K133">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -7063,15 +5938,15 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="K134">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -7089,15 +5964,15 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="K135">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -7115,15 +5990,15 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="K136">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -7141,15 +6016,15 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="K137">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -7167,15 +6042,15 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="K138">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L138">
         <v>1</v>
@@ -7193,15 +6068,15 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="K139">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L139">
         <v>1</v>
@@ -7219,15 +6094,15 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="K140">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -7245,15 +6120,15 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="K141">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -7271,15 +6146,15 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="K142">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -7302,10 +6177,10 @@
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="K143">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L143">
         <v>1</v>
@@ -7323,15 +6198,15 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="K144">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L144">
         <v>1</v>
@@ -7349,15 +6224,15 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="K145">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L145">
         <v>1</v>
@@ -7375,15 +6250,15 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="K146">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L146">
         <v>1</v>
@@ -7401,15 +6276,15 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="K147">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -7427,15 +6302,15 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="K148">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L148">
         <v>1</v>
@@ -7453,15 +6328,15 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="K149">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -7479,15 +6354,15 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="K150">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L150">
         <v>1</v>
@@ -7505,15 +6380,15 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="K151">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L151">
         <v>1</v>
@@ -7531,15 +6406,15 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="K152">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L152">
         <v>1</v>
@@ -7557,15 +6432,15 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="K153">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -7583,15 +6458,15 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="K154">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L154">
         <v>1</v>
@@ -7609,15 +6484,15 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="K155">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L155">
         <v>1</v>
@@ -7635,15 +6510,15 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="K156">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L156">
         <v>1</v>
@@ -7661,15 +6536,15 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="K157">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L157">
         <v>1</v>
@@ -7687,15 +6562,15 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="K158">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L158">
         <v>1</v>
@@ -7713,15 +6588,15 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="K159">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L159">
         <v>1</v>
@@ -7739,15 +6614,15 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="K160">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L160">
         <v>1</v>
@@ -7765,15 +6640,15 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="K161">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L161">
         <v>1</v>
@@ -7791,15 +6666,15 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>140</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="K162">
-        <v>0.0009057971014492754</v>
+        <v>0.0009541984732824427</v>
       </c>
       <c r="L162">
         <v>1</v>
@@ -7817,1619 +6692,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="10:17">
-      <c r="J163" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K163">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-      <c r="M163">
-        <v>1</v>
-      </c>
-      <c r="N163">
-        <v>1</v>
-      </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-      <c r="P163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q163">
         <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="10:17">
-      <c r="J164" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K164">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164">
-        <v>1</v>
-      </c>
-      <c r="N164">
-        <v>1</v>
-      </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-      <c r="P164" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="10:17">
-      <c r="J165" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K165">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165">
-        <v>1</v>
-      </c>
-      <c r="N165">
-        <v>1</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-      <c r="P165" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="10:17">
-      <c r="J166" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K166">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166">
-        <v>1</v>
-      </c>
-      <c r="N166">
-        <v>1</v>
-      </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-      <c r="P166" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q166">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="167" spans="10:17">
-      <c r="J167" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K167">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167">
-        <v>1</v>
-      </c>
-      <c r="N167">
-        <v>1</v>
-      </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-      <c r="P167" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q167">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="10:17">
-      <c r="J168" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K168">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-      <c r="M168">
-        <v>1</v>
-      </c>
-      <c r="N168">
-        <v>1</v>
-      </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-      <c r="P168" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q168">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" spans="10:17">
-      <c r="J169" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K169">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-      <c r="M169">
-        <v>1</v>
-      </c>
-      <c r="N169">
-        <v>1</v>
-      </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-      <c r="P169" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="10:17">
-      <c r="J170" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K170">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L170">
-        <v>1</v>
-      </c>
-      <c r="M170">
-        <v>1</v>
-      </c>
-      <c r="N170">
-        <v>1</v>
-      </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-      <c r="P170" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q170">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="10:17">
-      <c r="J171" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K171">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171">
-        <v>1</v>
-      </c>
-      <c r="N171">
-        <v>1</v>
-      </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-      <c r="P171" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q171">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="172" spans="10:17">
-      <c r="J172" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K172">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L172">
-        <v>1</v>
-      </c>
-      <c r="M172">
-        <v>1</v>
-      </c>
-      <c r="N172">
-        <v>1</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-      <c r="P172" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="10:17">
-      <c r="J173" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K173">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L173">
-        <v>1</v>
-      </c>
-      <c r="M173">
-        <v>1</v>
-      </c>
-      <c r="N173">
-        <v>1</v>
-      </c>
-      <c r="O173">
-        <v>0</v>
-      </c>
-      <c r="P173" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="10:17">
-      <c r="J174" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K174">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L174">
-        <v>1</v>
-      </c>
-      <c r="M174">
-        <v>1</v>
-      </c>
-      <c r="N174">
-        <v>1</v>
-      </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-      <c r="P174" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="10:17">
-      <c r="J175" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K175">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L175">
-        <v>1</v>
-      </c>
-      <c r="M175">
-        <v>1</v>
-      </c>
-      <c r="N175">
-        <v>1</v>
-      </c>
-      <c r="O175">
-        <v>0</v>
-      </c>
-      <c r="P175" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="10:17">
-      <c r="J176" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K176">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L176">
-        <v>1</v>
-      </c>
-      <c r="M176">
-        <v>1</v>
-      </c>
-      <c r="N176">
-        <v>1</v>
-      </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-      <c r="P176" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q176">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="10:17">
-      <c r="J177" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="K177">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L177">
-        <v>1</v>
-      </c>
-      <c r="M177">
-        <v>1</v>
-      </c>
-      <c r="N177">
-        <v>1</v>
-      </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="P177" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q177">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="10:17">
-      <c r="J178" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K178">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L178">
-        <v>1</v>
-      </c>
-      <c r="M178">
-        <v>1</v>
-      </c>
-      <c r="N178">
-        <v>1</v>
-      </c>
-      <c r="O178">
-        <v>0</v>
-      </c>
-      <c r="P178" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q178">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="179" spans="10:17">
-      <c r="J179" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K179">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L179">
-        <v>1</v>
-      </c>
-      <c r="M179">
-        <v>1</v>
-      </c>
-      <c r="N179">
-        <v>1</v>
-      </c>
-      <c r="O179">
-        <v>0</v>
-      </c>
-      <c r="P179" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="10:17">
-      <c r="J180" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K180">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L180">
-        <v>1</v>
-      </c>
-      <c r="M180">
-        <v>1</v>
-      </c>
-      <c r="N180">
-        <v>1</v>
-      </c>
-      <c r="O180">
-        <v>0</v>
-      </c>
-      <c r="P180" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q180">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="181" spans="10:17">
-      <c r="J181" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K181">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L181">
-        <v>1</v>
-      </c>
-      <c r="M181">
-        <v>1</v>
-      </c>
-      <c r="N181">
-        <v>1</v>
-      </c>
-      <c r="O181">
-        <v>0</v>
-      </c>
-      <c r="P181" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q181">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="10:17">
-      <c r="J182" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K182">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L182">
-        <v>1</v>
-      </c>
-      <c r="M182">
-        <v>1</v>
-      </c>
-      <c r="N182">
-        <v>1</v>
-      </c>
-      <c r="O182">
-        <v>0</v>
-      </c>
-      <c r="P182" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q182">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="10:17">
-      <c r="J183" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K183">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L183">
-        <v>1</v>
-      </c>
-      <c r="M183">
-        <v>1</v>
-      </c>
-      <c r="N183">
-        <v>1</v>
-      </c>
-      <c r="O183">
-        <v>0</v>
-      </c>
-      <c r="P183" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q183">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="10:17">
-      <c r="J184" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K184">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184">
-        <v>1</v>
-      </c>
-      <c r="N184">
-        <v>1</v>
-      </c>
-      <c r="O184">
-        <v>0</v>
-      </c>
-      <c r="P184" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="10:17">
-      <c r="J185" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K185">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L185">
-        <v>1</v>
-      </c>
-      <c r="M185">
-        <v>1</v>
-      </c>
-      <c r="N185">
-        <v>1</v>
-      </c>
-      <c r="O185">
-        <v>0</v>
-      </c>
-      <c r="P185" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="10:17">
-      <c r="J186" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K186">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L186">
-        <v>1</v>
-      </c>
-      <c r="M186">
-        <v>1</v>
-      </c>
-      <c r="N186">
-        <v>1</v>
-      </c>
-      <c r="O186">
-        <v>0</v>
-      </c>
-      <c r="P186" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q186">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="10:17">
-      <c r="J187" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="K187">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-      <c r="M187">
-        <v>1</v>
-      </c>
-      <c r="N187">
-        <v>1</v>
-      </c>
-      <c r="O187">
-        <v>0</v>
-      </c>
-      <c r="P187" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q187">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="10:17">
-      <c r="J188" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K188">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L188">
-        <v>1</v>
-      </c>
-      <c r="M188">
-        <v>1</v>
-      </c>
-      <c r="N188">
-        <v>1</v>
-      </c>
-      <c r="O188">
-        <v>0</v>
-      </c>
-      <c r="P188" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q188">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="10:17">
-      <c r="J189" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="K189">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189">
-        <v>1</v>
-      </c>
-      <c r="N189">
-        <v>1</v>
-      </c>
-      <c r="O189">
-        <v>0</v>
-      </c>
-      <c r="P189" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="10:17">
-      <c r="J190" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="K190">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L190">
-        <v>1</v>
-      </c>
-      <c r="M190">
-        <v>1</v>
-      </c>
-      <c r="N190">
-        <v>1</v>
-      </c>
-      <c r="O190">
-        <v>0</v>
-      </c>
-      <c r="P190" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="10:17">
-      <c r="J191" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K191">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L191">
-        <v>1</v>
-      </c>
-      <c r="M191">
-        <v>1</v>
-      </c>
-      <c r="N191">
-        <v>1</v>
-      </c>
-      <c r="O191">
-        <v>0</v>
-      </c>
-      <c r="P191" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="10:17">
-      <c r="J192" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K192">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L192">
-        <v>1</v>
-      </c>
-      <c r="M192">
-        <v>1</v>
-      </c>
-      <c r="N192">
-        <v>1</v>
-      </c>
-      <c r="O192">
-        <v>0</v>
-      </c>
-      <c r="P192" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q192">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="10:17">
-      <c r="J193" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K193">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L193">
-        <v>1</v>
-      </c>
-      <c r="M193">
-        <v>1</v>
-      </c>
-      <c r="N193">
-        <v>1</v>
-      </c>
-      <c r="O193">
-        <v>0</v>
-      </c>
-      <c r="P193" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q193">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="10:17">
-      <c r="J194" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="K194">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L194">
-        <v>1</v>
-      </c>
-      <c r="M194">
-        <v>1</v>
-      </c>
-      <c r="N194">
-        <v>1</v>
-      </c>
-      <c r="O194">
-        <v>0</v>
-      </c>
-      <c r="P194" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="10:17">
-      <c r="J195" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K195">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L195">
-        <v>1</v>
-      </c>
-      <c r="M195">
-        <v>1</v>
-      </c>
-      <c r="N195">
-        <v>1</v>
-      </c>
-      <c r="O195">
-        <v>0</v>
-      </c>
-      <c r="P195" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q195">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="10:17">
-      <c r="J196" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K196">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L196">
-        <v>1</v>
-      </c>
-      <c r="M196">
-        <v>1</v>
-      </c>
-      <c r="N196">
-        <v>1</v>
-      </c>
-      <c r="O196">
-        <v>0</v>
-      </c>
-      <c r="P196" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q196">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="10:17">
-      <c r="J197" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K197">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L197">
-        <v>1</v>
-      </c>
-      <c r="M197">
-        <v>1</v>
-      </c>
-      <c r="N197">
-        <v>1</v>
-      </c>
-      <c r="O197">
-        <v>0</v>
-      </c>
-      <c r="P197" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q197">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="10:17">
-      <c r="J198" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K198">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L198">
-        <v>1</v>
-      </c>
-      <c r="M198">
-        <v>1</v>
-      </c>
-      <c r="N198">
-        <v>1</v>
-      </c>
-      <c r="O198">
-        <v>0</v>
-      </c>
-      <c r="P198" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="10:17">
-      <c r="J199" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K199">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L199">
-        <v>1</v>
-      </c>
-      <c r="M199">
-        <v>15</v>
-      </c>
-      <c r="N199">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O199">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="P199" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q199">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="200" spans="10:17">
-      <c r="J200" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K200">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L200">
-        <v>1</v>
-      </c>
-      <c r="M200">
-        <v>1</v>
-      </c>
-      <c r="N200">
-        <v>1</v>
-      </c>
-      <c r="O200">
-        <v>0</v>
-      </c>
-      <c r="P200" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q200">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="201" spans="10:17">
-      <c r="J201" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K201">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L201">
-        <v>1</v>
-      </c>
-      <c r="M201">
-        <v>1</v>
-      </c>
-      <c r="N201">
-        <v>1</v>
-      </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-      <c r="P201" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q201">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="10:17">
-      <c r="J202" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K202">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L202">
-        <v>1</v>
-      </c>
-      <c r="M202">
-        <v>1</v>
-      </c>
-      <c r="N202">
-        <v>1</v>
-      </c>
-      <c r="O202">
-        <v>0</v>
-      </c>
-      <c r="P202" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q202">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="10:17">
-      <c r="J203" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K203">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L203">
-        <v>1</v>
-      </c>
-      <c r="M203">
-        <v>1</v>
-      </c>
-      <c r="N203">
-        <v>1</v>
-      </c>
-      <c r="O203">
-        <v>0</v>
-      </c>
-      <c r="P203" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q203">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="10:17">
-      <c r="J204" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K204">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L204">
-        <v>1</v>
-      </c>
-      <c r="M204">
-        <v>1</v>
-      </c>
-      <c r="N204">
-        <v>1</v>
-      </c>
-      <c r="O204">
-        <v>0</v>
-      </c>
-      <c r="P204" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q204">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="205" spans="10:17">
-      <c r="J205" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K205">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L205">
-        <v>1</v>
-      </c>
-      <c r="M205">
-        <v>1</v>
-      </c>
-      <c r="N205">
-        <v>1</v>
-      </c>
-      <c r="O205">
-        <v>0</v>
-      </c>
-      <c r="P205" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q205">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="10:17">
-      <c r="J206" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K206">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L206">
-        <v>1</v>
-      </c>
-      <c r="M206">
-        <v>1</v>
-      </c>
-      <c r="N206">
-        <v>1</v>
-      </c>
-      <c r="O206">
-        <v>0</v>
-      </c>
-      <c r="P206" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q206">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="207" spans="10:17">
-      <c r="J207" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K207">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L207">
-        <v>1</v>
-      </c>
-      <c r="M207">
-        <v>1</v>
-      </c>
-      <c r="N207">
-        <v>1</v>
-      </c>
-      <c r="O207">
-        <v>0</v>
-      </c>
-      <c r="P207" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="10:17">
-      <c r="J208" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K208">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L208">
-        <v>1</v>
-      </c>
-      <c r="M208">
-        <v>1</v>
-      </c>
-      <c r="N208">
-        <v>1</v>
-      </c>
-      <c r="O208">
-        <v>0</v>
-      </c>
-      <c r="P208" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="10:17">
-      <c r="J209" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K209">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L209">
-        <v>1</v>
-      </c>
-      <c r="M209">
-        <v>1</v>
-      </c>
-      <c r="N209">
-        <v>1</v>
-      </c>
-      <c r="O209">
-        <v>0</v>
-      </c>
-      <c r="P209" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="10:17">
-      <c r="J210" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K210">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L210">
-        <v>1</v>
-      </c>
-      <c r="M210">
-        <v>1</v>
-      </c>
-      <c r="N210">
-        <v>1</v>
-      </c>
-      <c r="O210">
-        <v>0</v>
-      </c>
-      <c r="P210" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="10:17">
-      <c r="J211" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K211">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L211">
-        <v>1</v>
-      </c>
-      <c r="M211">
-        <v>1</v>
-      </c>
-      <c r="N211">
-        <v>1</v>
-      </c>
-      <c r="O211">
-        <v>0</v>
-      </c>
-      <c r="P211" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q211">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="212" spans="10:17">
-      <c r="J212" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="K212">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L212">
-        <v>1</v>
-      </c>
-      <c r="M212">
-        <v>1</v>
-      </c>
-      <c r="N212">
-        <v>1</v>
-      </c>
-      <c r="O212">
-        <v>0</v>
-      </c>
-      <c r="P212" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q212">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="10:17">
-      <c r="J213" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K213">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L213">
-        <v>1</v>
-      </c>
-      <c r="M213">
-        <v>1</v>
-      </c>
-      <c r="N213">
-        <v>1</v>
-      </c>
-      <c r="O213">
-        <v>0</v>
-      </c>
-      <c r="P213" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q213">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="10:17">
-      <c r="J214" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="K214">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L214">
-        <v>1</v>
-      </c>
-      <c r="M214">
-        <v>1</v>
-      </c>
-      <c r="N214">
-        <v>1</v>
-      </c>
-      <c r="O214">
-        <v>0</v>
-      </c>
-      <c r="P214" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q214">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215" spans="10:17">
-      <c r="J215" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K215">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L215">
-        <v>1</v>
-      </c>
-      <c r="M215">
-        <v>1</v>
-      </c>
-      <c r="N215">
-        <v>1</v>
-      </c>
-      <c r="O215">
-        <v>0</v>
-      </c>
-      <c r="P215" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q215">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="10:17">
-      <c r="J216" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K216">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L216">
-        <v>1</v>
-      </c>
-      <c r="M216">
-        <v>1</v>
-      </c>
-      <c r="N216">
-        <v>1</v>
-      </c>
-      <c r="O216">
-        <v>0</v>
-      </c>
-      <c r="P216" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="10:17">
-      <c r="J217" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K217">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217">
-        <v>1</v>
-      </c>
-      <c r="N217">
-        <v>1</v>
-      </c>
-      <c r="O217">
-        <v>0</v>
-      </c>
-      <c r="P217" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="10:17">
-      <c r="J218" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K218">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L218">
-        <v>1</v>
-      </c>
-      <c r="M218">
-        <v>1</v>
-      </c>
-      <c r="N218">
-        <v>1</v>
-      </c>
-      <c r="O218">
-        <v>0</v>
-      </c>
-      <c r="P218" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="10:17">
-      <c r="J219" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K219">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L219">
-        <v>1</v>
-      </c>
-      <c r="M219">
-        <v>1</v>
-      </c>
-      <c r="N219">
-        <v>1</v>
-      </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q219">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="220" spans="10:17">
-      <c r="J220" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K220">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L220">
-        <v>1</v>
-      </c>
-      <c r="M220">
-        <v>1</v>
-      </c>
-      <c r="N220">
-        <v>1</v>
-      </c>
-      <c r="O220">
-        <v>0</v>
-      </c>
-      <c r="P220" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q220">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="221" spans="10:17">
-      <c r="J221" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K221">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="M221">
-        <v>1</v>
-      </c>
-      <c r="N221">
-        <v>1</v>
-      </c>
-      <c r="O221">
-        <v>0</v>
-      </c>
-      <c r="P221" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q221">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="222" spans="10:17">
-      <c r="J222" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K222">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-      <c r="M222">
-        <v>1</v>
-      </c>
-      <c r="N222">
-        <v>1</v>
-      </c>
-      <c r="O222">
-        <v>0</v>
-      </c>
-      <c r="P222" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q222">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="10:17">
-      <c r="J223" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K223">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L223">
-        <v>1</v>
-      </c>
-      <c r="M223">
-        <v>1</v>
-      </c>
-      <c r="N223">
-        <v>1</v>
-      </c>
-      <c r="O223">
-        <v>0</v>
-      </c>
-      <c r="P223" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q223">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="10:17">
-      <c r="J224" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K224">
-        <v>0.0009057971014492754</v>
-      </c>
-      <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224">
-        <v>1</v>
-      </c>
-      <c r="N224">
-        <v>1</v>
-      </c>
-      <c r="O224">
-        <v>0</v>
-      </c>
-      <c r="P224" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q224">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
